--- a/biology/Zoologie/Denebola_(genre)/Denebola_(genre).xlsx
+++ b/biology/Zoologie/Denebola_(genre)/Denebola_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Denebola brachycephala
-Denebola est un genre éteint de cétacés odontocètes de la famille des Monodontidae[2], un proche parent du béluga moderne.
+Denebola est un genre éteint de cétacés odontocètes de la famille des Monodontidae, un proche parent du béluga moderne.
 Ses restes fossiles n'ont été découverts qu'en Basse-Californie, au Mexique. Ils ont été extraits de la partie inférieure de la formation géologique d'Almejas datée du Miocène supérieur (Messinien), soit il y a environ entre 7,246 et 5,333 millions d'années.
-La seule espèce connue est Denebola brachycephala, décrite par Lawrence G. Barnes en 1984[1].
+La seule espèce connue est Denebola brachycephala, décrite par Lawrence G. Barnes en 1984.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Denebola brachycephala mesurait entre 3,50 et 5 mètres de long et pesait 250 à 700 kg.
 </t>
